--- a/tradept/Excel/Localization/Main/english/D道具列表_Items_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/D道具列表_Items_hotfix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBF512B-2ADF-4D46-A412-EE0699C1CADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A372C4-AD8B-4CD0-B943-ADCFC0DFC11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,7 +311,7 @@
     <t>传说中可以找到将军骑士纪念碑的地图的残页。你需要左半边才可以拼出一幅完整的地图。(右键查看地图）</t>
   </si>
   <si>
-    <t>Fragmento de Cristal Mágico</t>
+    <t>Fragmento Mágico de Cristal</t>
   </si>
   <si>
     <t>Fragmento do Livro de Fogo</t>
@@ -362,7 +362,7 @@
     <t>Cristal Arcano</t>
   </si>
   <si>
-    <t>Garrafa Estranha</t>
+    <t>Frasco Estranho</t>
   </si>
   <si>
     <t>Rosa Branca Comum</t>
@@ -374,12 +374,6 @@
     <t>Rosa Branca Arcana</t>
   </si>
   <si>
-    <t>Antigo Livro dos Ifrits</t>
-  </si>
-  <si>
-    <t>Foice dos Ifrits</t>
-  </si>
-  <si>
     <t>Livro de Fogo</t>
   </si>
   <si>
@@ -392,13 +386,19 @@
     <t>Memórias de um Veterano</t>
   </si>
   <si>
-    <t>Fragmento de Mapa (Esquerda)</t>
-  </si>
-  <si>
-    <t>Fragmento de Mapa (Direita)</t>
-  </si>
-  <si>
-    <t>Os restos de um manuscrito mágico. Você ainda pode sentir o poder fluindo por suas páginas.</t>
+    <t>Fragmento de Mapa (Esquerdo)</t>
+  </si>
+  <si>
+    <t>Fragmento de Mapa (Direito)</t>
+  </si>
+  <si>
+    <t>Antigo Livro do Ifrit</t>
+  </si>
+  <si>
+    <t>Foice do Ifrit</t>
+  </si>
+  <si>
+    <t>Os restos de um manuscrito mágico. Ainda é possível sentir o poder pulsando através de suas páginas.</t>
   </si>
   <si>
     <t>Uma história da Cidade de Jamal.</t>
@@ -413,22 +413,22 @@
     <t>O diário de um prisioneiro.</t>
   </si>
   <si>
-    <t>Uma cimitarra mística que nasceu dos sonhos da Deusa do Rio.</t>
-  </si>
-  <si>
-    <t>Roupas rasgadas com um forte odor.</t>
+    <t>Um cimitarra mística que nasceu dos sonhos da Deusa do Rio.</t>
+  </si>
+  <si>
+    <t>Roupas rasgadas com um forte cheiro.</t>
   </si>
   <si>
     <t>Um tronco resistente de uma palmeira.</t>
   </si>
   <si>
-    <t>Um pergaminho que o devolve à sua área original com uso ilimitado. Leva muito tempo para ser conjurado.</t>
-  </si>
-  <si>
-    <t>O servo de Ouma espera que você entregue esta garrafa de medicina para o povo da Vila Nebulosa. (Item de missão)</t>
-  </si>
-  <si>
-    <t>Este cristal estranho está repleto de arcana ancestral de Nemishi. Qual seria o seu propósito?</t>
+    <t>Um pergaminho que te retorna à sua área original com usos ilimitados. Leva muito tempo para conjurar.</t>
+  </si>
+  <si>
+    <t>O servo de Ouma espera que você entregue esta garrafa de remédio para o povo da Vila Nebulosa. (Item de missão)</t>
+  </si>
+  <si>
+    <t>Este estranho cristal está cheio de arcanos antigos de Nemishi. Qual seria o seu propósito?</t>
   </si>
   <si>
     <t>Memórias dos Nemishi.</t>
@@ -437,7 +437,7 @@
     <t>Um retrato realista da Princesa Ilayda.</t>
   </si>
   <si>
-    <t>Use para aumentar permanentemente o Ataque do seu personagem principal em 1.</t>
+    <t>Usado para aumentar permanentemente o Ataque do seu personagem principal em 1.</t>
   </si>
   <si>
     <t>Um tesouro misterioso que dizem conter uma estranha maldição.</t>
@@ -446,40 +446,40 @@
     <t>O comerciante de quem você comprou este cristal disse que ele contém um poder imenso que só pode ser ativado na Miragem da Floresta.</t>
   </si>
   <si>
-    <t>Duas crianças no posto avançado sul da Cidade de Cotta lhe entregaram esta garrafa estranha para jogar no Vazio de Lava Pāhoehoe. Eles dizem que há uma alma presa lá dentro.</t>
-  </si>
-  <si>
-    <t>A mais comum das rosas brancas usadas pela Sociedade da Rosa Branca para fabricar suas poções.</t>
-  </si>
-  <si>
-    <t>Uma rosa branca premium usada pela Sociedade da Rosa Branca para fabricar suas poções.</t>
-  </si>
-  <si>
-    <t>Uma rosa branca encantada com arcana usada pela Sociedade da Rosa Branca para fabricar suas poções.</t>
-  </si>
-  <si>
-    <t>Um antigo livro dos Ifrits que contém inúmeros textos ilegíveis.</t>
-  </si>
-  <si>
-    <t>Um livro detalhando alguns dos arcana mais poderosos da história, escrito pelo Mestre dos Ifrits das Chamas. Parte de sua alma está selada dentro.</t>
-  </si>
-  <si>
-    <t>Nascida das chamas, canta as canções do fogo arcano! Equipe-o para convocar o Mestre dos Ifrits das Chamas para lutar ao seu lado.</t>
-  </si>
-  <si>
-    <t>Este pergaminho contém receitas para uma variedade de poções e elixires.</t>
-  </si>
-  <si>
-    <t>Um livro-guia para iniciantes.</t>
-  </si>
-  <si>
-    <t>Você pessoalmente registrou a história trágica de um veterano que sobreviveu à Batalha do Sol Negro. Você pode dar aos outros como um presente.</t>
-  </si>
-  <si>
-    <t>Dizem que este mapa leva ao monumento do mítico Cavaleiro General. Você precisa da metade direita do mapa para uma imagem completa.</t>
-  </si>
-  <si>
-    <t>Dizem que este mapa leva ao monumento do mítico Cavaleiro General. Você precisa da metade esquerda do mapa para uma imagem completa.</t>
+    <t>Duas crianças no posto sul da Cidade de Cotta entregaram a você esta estranha garrafa para jogar no Vazio de Lava Pāhoehoe. Dizem que há uma alma presa dentro dela.</t>
+  </si>
+  <si>
+    <t>A rosa branca mais comum usada pela Sociedade da Rosa Branca para criar suas poções.</t>
+  </si>
+  <si>
+    <t>Uma rosa branca premium usada pela Sociedade da Rosa Branca para criar suas poções.</t>
+  </si>
+  <si>
+    <t>Uma rosa branca encantada com arcanos usada pela Sociedade da Rosa Branca para criar suas poções.</t>
+  </si>
+  <si>
+    <t>Um livro antigo Ifrit que contém inúmeros textos ilegíveis.</t>
+  </si>
+  <si>
+    <t>Um livro que detalha alguns dos arcanos mais poderosos da história, escrito pelo Mestre das Chamas Ifrit. Parte de sua alma está selada dentro.</t>
+  </si>
+  <si>
+    <t>Nascido acima das chamas, entoa as canções do fogo arcano! Equipe-o para invocar o Mestre Ifrit das Chamas para lutar ao seu lado.</t>
+  </si>
+  <si>
+    <t>Este pergaminho contém receitas para várias poções e elixires.</t>
+  </si>
+  <si>
+    <t>Um guia para iniciantes.</t>
+  </si>
+  <si>
+    <t>Você pessoalmente registrou a história trágica de um veterano que sobreviveu à Batalha do Sol Negro. Você pode presentear isso a outros.</t>
+  </si>
+  <si>
+    <t>Dizem que este mapa leva ao monumento do mítico General Cavaleiro. Você precisa da metade direita do mapa para ter a imagem completa.</t>
+  </si>
+  <si>
+    <t>Dizem que este mapa leva ao monumento do mítico General Cavaleiro. Você precisa da metade esquerda do mapa para ter a imagem completa.</t>
   </si>
 </sst>
 </file>
@@ -1077,13 +1077,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
@@ -1485,7 +1484,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>59</v>
@@ -1553,7 +1552,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>66</v>
@@ -1570,7 +1569,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>69</v>
@@ -1593,7 +1592,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>72</v>
@@ -1610,7 +1609,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>74</v>
@@ -1627,7 +1626,7 @@
         <v>75</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31" s="20"/>
       <c r="F31" s="21" t="s">
@@ -1645,7 +1644,7 @@
         <v>78</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D32" s="20"/>
       <c r="F32" s="21" t="s">
@@ -1663,7 +1662,7 @@
         <v>81</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D33" s="20"/>
       <c r="F33" s="21" t="s">
